--- a/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
+++ b/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,25 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Electrospray deposition</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>NanoZoomer S210</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>NanoZoomer S210</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>In-House</t>
+          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -493,30 +488,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>MS3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MS3</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Leica Biosystems</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leica Biosystems</t>
+          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -540,30 +530,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sublimation</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MS2</t>
+          <t>Sublimator</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sublimator</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>SA (sinapic acid)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>SA (sinapic acid)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -585,27 +570,22 @@
           <t>Ethanol:Water (EtOH:H2O)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Robotic spotting</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EVOS M7000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EVOS M7000</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
+          <t>DAN (1,5-diaminonapthalene)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>DAN (1,5-diaminonapthalene)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -627,27 +607,22 @@
           <t>Ethanol:Dimethylformamide (EtOH:DMF)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Robotic spraying</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chromium Controller</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chromium Controller</t>
+          <t>Roche Diagnostics</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Roche Diagnostics</t>
+          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -669,17 +644,17 @@
           <t>Acetonitrile:Dimethylformamide (ACN:DMF)</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NanoZoomer S360</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NanoZoomer S360</t>
+          <t>HTX Technologies</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>HTX Technologies</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>9-AA (9-aminoacridine)</t>
         </is>
@@ -696,17 +671,17 @@
           <t>GE Healthcare</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NanoZoomer S60</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NanoZoomer S60</t>
+          <t>10x Genomics</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>CHCA (alpha-cyano-4-hydroxy-cinnamic acid)</t>
         </is>
@@ -723,17 +698,17 @@
           <t>Leica Microsystems</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chromium X</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chromium X</t>
+          <t>Hamamatsu</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
         </is>
@@ -750,12 +725,12 @@
           <t>Akoya Biosciences</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AutoStainer XL</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>AutoStainer XL</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>SunChrom</t>
         </is>
@@ -772,7 +747,7 @@
           <t>NanoString</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Visium CytAssist</t>
         </is>
@@ -789,7 +764,7 @@
           <t>Element Biosciences</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>SunCollect Sprayer</t>
         </is>
@@ -806,7 +781,7 @@
           <t>Andor</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>M3+ Sprayer</t>
         </is>
@@ -823,7 +798,7 @@
           <t>Huron Digital Pathology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Discovery Ultra</t>
         </is>
@@ -840,7 +815,7 @@
           <t>Illumina</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>ST5020 Multistainer</t>
         </is>
@@ -857,7 +832,7 @@
           <t>Ionpath</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Chromium iX</t>
         </is>
@@ -874,7 +849,7 @@
           <t>In-House</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Chromium Connect</t>
         </is>
@@ -891,7 +866,7 @@
           <t>Resolve Biosciences</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>M5 Sprayer</t>
         </is>
@@ -908,7 +883,7 @@
           <t>Singular Genomics</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>TM-Sprayer</t>
         </is>
@@ -1398,7 +1373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1469,7 +1444,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Waters Corp.</t>
+          <t>Waters</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -1492,7 +1467,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>methanol: water 95:5 (v/v) with 0.01 percent formic acid and 20pg/ul leucine enkephalin</t>
+          <t>Methanol:Water (MeOH:H2O); Formic Acid and Leu-enkephalin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1510,10 +1485,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -1529,14 +1508,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>preparation_instrument_model</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -1552,7 +1527,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1571,10 +1546,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
@@ -1585,19 +1564,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM238.PWFH.224</t>
+          <t>HBM875.FTTV.999</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Synapt G2-Si</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.PWFH.224</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1592,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>acquisition_instrument_vendor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Synapt G2-Si</t>
+          <t>Waters</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1632,12 +1615,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>acquisition_instrument_vendor</t>
+          <t>desorption_solvent</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Waters Corp.</t>
+          <t>Methanol:Water (MeOH:H2O); Formic Acid and Leu-enkephalin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1655,12 +1638,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>desorption_solvent</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>methanol: water 95:5 (v/v) with 0.01% formic acid and 20pg/ul leucine enkephalin</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1678,7 +1661,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1697,14 +1680,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>preparation_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -1720,10 +1699,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -1731,70 +1714,29 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E17"/>
-  <dataValidations count="8">
-    <dataValidation sqref="D2 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E15"/>
+  <dataValidations count="7">
+    <dataValidation sqref="D2 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$30</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D13" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$5</formula1>
+    <dataValidation sqref="D5 D12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D14" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$3</formula1>
+    <dataValidation sqref="D6 D13" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$18</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$18</formula1>
+    <dataValidation sqref="D7 D14" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$F$1:$F$9</formula1>
     </dataValidation>
-    <dataValidation sqref="D8 D16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$9</formula1>
-    </dataValidation>
-    <dataValidation sqref="D9 D17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$8</formula1>
+    <dataValidation sqref="D8 D15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$G$1:$G$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1949,7 +1891,7 @@
   <autoFilter ref="A1:D7"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$I$1:$I$5</formula1>
+      <formula1>_validation_data!$H$1:$H$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
+++ b/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,10 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>NanoZoomer S210</t>
+          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -493,20 +483,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -535,20 +515,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sublimator</t>
+          <t>SA (sinapic acid)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SA (sinapic acid)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -572,20 +542,10 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EVOS M7000</t>
+          <t>DAN (1,5-diaminonapthalene)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DAN (1,5-diaminonapthalene)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -609,20 +569,10 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chromium Controller</t>
+          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Roche Diagnostics</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -646,16 +596,6 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HTX Technologies</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>9-AA (9-aminoacridine)</t>
         </is>
       </c>
@@ -673,16 +613,6 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>CHCA (alpha-cyano-4-hydroxy-cinnamic acid)</t>
         </is>
       </c>
@@ -700,16 +630,6 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chromium X</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
         </is>
       </c>
@@ -725,16 +645,6 @@
           <t>Akoya Biosciences</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AutoStainer XL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>SunChrom</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -747,11 +657,6 @@
           <t>NanoString</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Visium CytAssist</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -764,11 +669,6 @@
           <t>Element Biosciences</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SunCollect Sprayer</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -781,11 +681,6 @@
           <t>Andor</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>M3+ Sprayer</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -798,11 +693,6 @@
           <t>Huron Digital Pathology</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Discovery Ultra</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -815,11 +705,6 @@
           <t>Illumina</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ST5020 Multistainer</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -832,11 +717,6 @@
           <t>Ionpath</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Chromium iX</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -849,11 +729,6 @@
           <t>In-House</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Chromium Connect</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -866,11 +741,6 @@
           <t>Resolve Biosciences</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>M5 Sprayer</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -881,11 +751,6 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>Singular Genomics</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TM-Sprayer</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1508,10 +1373,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -1522,42 +1391,46 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM238.PWFH.224</t>
+          <t>HBM875.FTTV.999</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Synapt G2-Si</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.PWFH.224</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM238.PWFH.224</t>
+          <t>HBM875.FTTV.999</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>preparation_matrix</t>
+          <t>acquisition_instrument_vendor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Waters</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.PWFH.224</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1442,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>desorption_solvent</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Synapt G2-Si</t>
+          <t>Methanol:Water (MeOH:H2O); Formic Acid and Leu-enkephalin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1592,12 +1465,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>acquisition_instrument_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Waters</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1615,12 +1488,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>desorption_solvent</t>
+          <t>preparation_matrix</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Methanol:Water (MeOH:H2O); Formic Acid and Leu-enkephalin</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1630,113 +1503,23 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E15"/>
-  <dataValidations count="7">
-    <dataValidation sqref="D2 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E11"/>
+  <dataValidations count="5">
+    <dataValidation sqref="D2 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$30</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D5 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D13" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$18</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D14" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$9</formula1>
-    </dataValidation>
-    <dataValidation sqref="D8 D15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$8</formula1>
+    <dataValidation sqref="D6 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1891,7 +1674,7 @@
   <autoFilter ref="A1:D7"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$5</formula1>
+      <formula1>_validation_data!$F$1:$F$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
+++ b/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Methanol:Ethanol (MeOH:EtOH)</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -473,20 +468,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acetonitrile:Water (ACN:H2O)</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MS3</t>
+          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -505,20 +495,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Methanol:Water (MeOH:H2O)</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MS2</t>
+          <t>SA (sinapic acid)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>SA (sinapic acid)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -535,17 +520,12 @@
           <t>Zeiss Microscopy</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ethanol:Water (EtOH:H2O)</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DAN (1,5-diaminonapthalene)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>DAN (1,5-diaminonapthalene)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -562,17 +542,12 @@
           <t>Complete Genomics</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ethanol:Dimethylformamide (EtOH:DMF)</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -589,12 +564,7 @@
           <t>3DHISTECH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Acetonitrile:Dimethylformamide (ACN:DMF)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>9-AA (9-aminoacridine)</t>
         </is>
@@ -611,7 +581,7 @@
           <t>GE Healthcare</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>CHCA (alpha-cyano-4-hydroxy-cinnamic acid)</t>
         </is>
@@ -628,7 +598,7 @@
           <t>Leica Microsystems</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
         </is>
@@ -1238,7 +1208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,12 +1297,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>desorption_solvent</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Methanol:Water (MeOH:H2O); Formic Acid and Leu-enkephalin</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1350,12 +1320,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>preparation_matrix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1368,23 +1338,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM238.PWFH.224</t>
+          <t>HBM875.FTTV.999</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>preparation_matrix</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Synapt G2-Si</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.PWFH.224</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1366,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>acquisition_instrument_vendor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Synapt G2-Si</t>
+          <t>Waters</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1419,12 +1389,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>acquisition_instrument_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Waters</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1442,12 +1412,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>desorption_solvent</t>
+          <t>preparation_matrix</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Methanol:Water (MeOH:H2O); Formic Acid and Leu-enkephalin</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1457,69 +1427,20 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E11"/>
-  <dataValidations count="5">
-    <dataValidation sqref="D2 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E9"/>
+  <dataValidations count="4">
+    <dataValidation sqref="D2 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$30</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$6</formula1>
+    <dataValidation sqref="D4 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$8</formula1>
+    <dataValidation sqref="D5 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1674,7 +1595,7 @@
   <autoFilter ref="A1:D7"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$5</formula1>
+      <formula1>_validation_data!$E$1:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
+++ b/metadata/desi/todo/TTD - Penn State University and Columbia University (DESI).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,25 +431,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SCN400</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BGI Genomics</t>
+          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>MS1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -458,25 +448,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELLARIS 5</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cytiva</t>
+          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>MS3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -485,715 +465,62 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BZ-X710</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
+          <t>SA (sinapic acid)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MS2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SA (sinapic acid)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pannoramic MIDI II Digital Scanner</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zeiss Microscopy</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>DAN (1,5-diaminonapthalene)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Complete Genomics</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MoticEasyScan One</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3DHISTECH</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>9-AA (9-aminoacridine)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EVOS M7000</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GE Healthcare</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>CHCA (alpha-cyano-4-hydroxy-cinnamic acid)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NovaSeq X</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leica Microsystems</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NanoZoomer 2.0-HT</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Akoya Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra 2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NanoString</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lightsheet 7</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Element Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 1.0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Andor</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DNBSEQ-T7</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Huron Digital Pathology</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>timsTOF Pro</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Illumina</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ionpath</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AVITI</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>timsTOF Pro 2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q Exactive UHMR</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Singular Genomics</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q Exactive</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Vizgen</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>timsTOF SCP</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Standard BioTools (Fluidigm)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Zyla 4.2 sCMOS</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sciex</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Helios</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>uScopeHXII-20</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Evident Scientific (Olympus)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Custom: Multiphoton</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Keyence</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>QTRAP 5500</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cytek Biosciences</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BZ-X800</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CyTOF 2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Microscopes International</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>G4X Spatial Sequencer</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NextSeq 500</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Motic</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hyperion Imaging System</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NovaSeq X Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CyTOF XT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NanoZoomer-SQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NextSeq 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Axio Zoom.V16</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Digital Spatial Profiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>timsTOF FleX</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>timsTOF FleX MALDI-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BZ-X810</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Axio Observer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cytek Northern Lights</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IN Cell Analyzer 2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>timsTOF HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PhenoImager Fusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DM6 B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Aperio CS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Lumos Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences Molecular Cartography</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MALDI timsTOF Flex Prototype</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>TissueScope LE Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>VS200 Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Axio Observer 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Axio Observer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HiSeq 2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Orbitrap Eclipse Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cell DIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MERSCOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NextSeq 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NovaSeq 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HiSeq 4000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>solariX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Panoramic 150 Digital Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Aperio AT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIBIscope</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Biomark HD</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CosMx Spatial Molecular Imager</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MERSCOPE Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Axio Scan.Z1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Juno System</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Q Exactive HF</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -1208,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,12 +578,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Synapt G2-Si</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1274,12 +601,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acquisition_instrument_vendor</t>
+          <t>preparation_matrix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Waters</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -1292,7 +619,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM238.PWFH.224</t>
+          <t>HBM875.FTTV.999</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1308,14 +635,14 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.PWFH.224</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM238.PWFH.224</t>
+          <t>HBM875.FTTV.999</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1331,116 +658,18 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM238.PWFH.224</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Synapt G2-Si</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Waters</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM875.FTTV.999</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.FTTV.999</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E9"/>
-  <dataValidations count="4">
-    <dataValidation sqref="D2 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$77</formula1>
+  <autoFilter ref="A1:E5"/>
+  <dataValidations count="2">
+    <dataValidation sqref="D2 D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$30</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$8</formula1>
+    <dataValidation sqref="D3 D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1595,7 +824,7 @@
   <autoFilter ref="A1:D7"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
